--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FCB777-2982-48CE-91E9-AD199E8ED6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1972" yWindow="248" windowWidth="15293" windowHeight="12787" xr2:uid="{F9759F3D-20D6-4D87-A204-10E876D2F3E5}"/>
+    <workbookView xWindow="1965" yWindow="255" windowWidth="15300" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,25 +51,25 @@
     <t>Level 5</t>
   </si>
   <si>
-    <t>Haar</t>
-  </si>
-  <si>
-    <t>Coiflet2</t>
-  </si>
-  <si>
-    <t>Meyer</t>
-  </si>
-  <si>
-    <t>Symlet2</t>
-  </si>
-  <si>
-    <t>Daubechies2</t>
+    <t>Var1</t>
+  </si>
+  <si>
+    <t>Var2</t>
+  </si>
+  <si>
+    <t>Var3</t>
+  </si>
+  <si>
+    <t>Var4</t>
+  </si>
+  <si>
+    <t>Var5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -438,22 +437,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF6FC34-96D3-488F-8DE1-A3D15ADEE20C}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -462,96 +460,96 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.65511065004208902</v>
+        <v>0.6551106500420899</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0469131896978035E-2</v>
+        <v>1.0469131896978033E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>3.9874527662115328E-2</v>
+        <v>3.9874527662115314E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1510000614327609E-2</v>
+        <v>1.1510000614327606E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>3.9874527662115328E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>3.9874527662115314E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>6.6357313549832311</v>
+        <v>6.635731354983232</v>
       </c>
       <c r="C3" s="2">
-        <v>0.56498109709097277</v>
+        <v>0.56498109709097288</v>
       </c>
       <c r="D3" s="2">
-        <v>1.1797419714033859</v>
+        <v>1.1797419714033865</v>
       </c>
       <c r="E3" s="2">
-        <v>6.9615907654107273E-2</v>
+        <v>6.9615907654107398E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>1.1797419714033859</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1.1797419714033865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>221.28748060603422</v>
+        <v>221.28748060603434</v>
       </c>
       <c r="C4" s="2">
-        <v>43.884363598813245</v>
+        <v>43.884363598813252</v>
       </c>
       <c r="D4" s="2">
-        <v>52.236117414878137</v>
+        <v>52.236117414878123</v>
       </c>
       <c r="E4" s="2">
-        <v>94.628148803710573</v>
+        <v>94.628148803711099</v>
       </c>
       <c r="F4" s="2">
-        <v>52.236117414878137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>52.236117414878123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1196.228525834453</v>
+        <v>1196.2285258344523</v>
       </c>
       <c r="C5" s="2">
-        <v>372.24923031870293</v>
+        <v>372.24923031870281</v>
       </c>
       <c r="D5" s="2">
-        <v>567.59710290525732</v>
+        <v>567.59710290525766</v>
       </c>
       <c r="E5" s="2">
-        <v>277.83186743869339</v>
+        <v>277.83186743869419</v>
       </c>
       <c r="F5" s="2">
-        <v>567.59710290525732</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>567.59710290525766</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,16 +557,169 @@
         <v>7887.2765905941324</v>
       </c>
       <c r="C6" s="2">
-        <v>9068.4869198932392</v>
+        <v>9068.4869198932302</v>
       </c>
       <c r="D6" s="2">
-        <v>3120.6957669757394</v>
+        <v>3120.6957669757417</v>
       </c>
       <c r="E6" s="2">
-        <v>3832.9392735661836</v>
+        <v>3832.9392735661877</v>
       </c>
       <c r="F6" s="2">
-        <v>3120.6957669757394</v>
+        <v>3120.6957669757417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>19705.696699455566</v>
+      </c>
+      <c r="C7">
+        <v>27346.035628580434</v>
+      </c>
+      <c r="D7">
+        <v>23114.478291355099</v>
+      </c>
+      <c r="E7">
+        <v>22491.463821829162</v>
+      </c>
+      <c r="F7">
+        <v>23114.478291355099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>136758.85353512323</v>
+      </c>
+      <c r="C8">
+        <v>45946.724021206355</v>
+      </c>
+      <c r="D8">
+        <v>79573.437662370285</v>
+      </c>
+      <c r="E8">
+        <v>56124.862996012635</v>
+      </c>
+      <c r="F8">
+        <v>79573.437662370285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>320942.43393121561</v>
+      </c>
+      <c r="C9">
+        <v>451330.51273229864</v>
+      </c>
+      <c r="D9">
+        <v>254059.54342111835</v>
+      </c>
+      <c r="E9">
+        <v>226747.42047321409</v>
+      </c>
+      <c r="F9">
+        <v>254059.54342111835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2916699.5150474426</v>
+      </c>
+      <c r="C10">
+        <v>1031166.6665713912</v>
+      </c>
+      <c r="D10">
+        <v>1776449.355858786</v>
+      </c>
+      <c r="E10">
+        <v>1538987.3628932899</v>
+      </c>
+      <c r="F10">
+        <v>1776449.355858786</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3841364.5332258306</v>
+      </c>
+      <c r="C11">
+        <v>3090148.8191548046</v>
+      </c>
+      <c r="D11">
+        <v>2604947.4713609926</v>
+      </c>
+      <c r="E11">
+        <v>2847556.866244731</v>
+      </c>
+      <c r="F11">
+        <v>2604947.4713609926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>4650914.040362522</v>
+      </c>
+      <c r="C12">
+        <v>3300747.2900350341</v>
+      </c>
+      <c r="D12">
+        <v>3357583.8196733333</v>
+      </c>
+      <c r="E12">
+        <v>3061393.0785449399</v>
+      </c>
+      <c r="F12">
+        <v>3357583.8196733333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>4720871.6968995957</v>
+      </c>
+      <c r="C13">
+        <v>4078537.3919022349</v>
+      </c>
+      <c r="D13">
+        <v>3919753.4141234686</v>
+      </c>
+      <c r="E13">
+        <v>3462022.8001190387</v>
+      </c>
+      <c r="F13">
+        <v>3919753.4141234686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>4715400.4003190016</v>
+      </c>
+      <c r="C14">
+        <v>4016708.5621560928</v>
+      </c>
+      <c r="D14">
+        <v>3908042.5975510385</v>
+      </c>
+      <c r="E14">
+        <v>3265517.3311812473</v>
+      </c>
+      <c r="F14">
+        <v>3908042.5975510385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>4704345.7886826023</v>
+      </c>
+      <c r="C15">
+        <v>3940706.9562435127</v>
+      </c>
+      <c r="D15">
+        <v>3872388.4845367568</v>
+      </c>
+      <c r="E15">
+        <v>2990336.4054172039</v>
+      </c>
+      <c r="F15">
+        <v>3872388.4845367568</v>
       </c>
     </row>
   </sheetData>
@@ -578,24 +729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489990E9-13FA-4A33-987A-EFBDBF6315C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8229EDFD-0159-4E5F-ACE4-65CDF150EF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -444,14 +444,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" customWidth="1"/>
+    <col min="3" max="6" width="11.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -469,7 +469,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +489,7 @@
         <v>3.9874527662115314E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +509,7 @@
         <v>1.1797419714033865</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,7 +529,7 @@
         <v>52.236117414878123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
         <v>567.59710290525766</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3120.6957669757417</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>19705.696699455566</v>
       </c>
@@ -586,7 +586,7 @@
         <v>23114.478291355099</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>136758.85353512323</v>
       </c>
@@ -603,7 +603,7 @@
         <v>79573.437662370285</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>320942.43393121561</v>
       </c>
@@ -620,7 +620,7 @@
         <v>254059.54342111835</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2916699.5150474426</v>
       </c>
@@ -637,7 +637,7 @@
         <v>1776449.355858786</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3841364.5332258306</v>
       </c>
@@ -654,7 +654,7 @@
         <v>2604947.4713609926</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>4650914.040362522</v>
       </c>
@@ -671,7 +671,7 @@
         <v>3357583.8196733333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4720871.6968995957</v>
       </c>
@@ -688,7 +688,7 @@
         <v>3919753.4141234686</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>4715400.4003190016</v>
       </c>
@@ -705,7 +705,7 @@
         <v>3908042.5975510385</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>4704345.7886826023</v>
       </c>
@@ -734,7 +734,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -746,7 +746,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8904E550-B708-4875-8857-E4C9ED22BC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="255" windowWidth="15300" windowHeight="12780"/>
+    <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +22,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -69,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,21 +430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" customWidth="1"/>
-    <col min="3" max="6" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -469,7 +462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +482,7 @@
         <v>3.9874527662115314E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -509,7 +502,7 @@
         <v>1.1797419714033865</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -529,7 +522,7 @@
         <v>52.236117414878123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -549,7 +542,7 @@
         <v>567.59710290525766</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -569,7 +562,7 @@
         <v>3120.6957669757417</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>19705.696699455566</v>
       </c>
@@ -586,7 +579,7 @@
         <v>23114.478291355099</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>136758.85353512323</v>
       </c>
@@ -603,7 +596,7 @@
         <v>79573.437662370285</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>320942.43393121561</v>
       </c>
@@ -620,7 +613,7 @@
         <v>254059.54342111835</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2916699.5150474426</v>
       </c>
@@ -637,7 +630,7 @@
         <v>1776449.355858786</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3841364.5332258306</v>
       </c>
@@ -654,7 +647,7 @@
         <v>2604947.4713609926</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4650914.040362522</v>
       </c>
@@ -671,7 +664,7 @@
         <v>3357583.8196733333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4720871.6968995957</v>
       </c>
@@ -688,7 +681,7 @@
         <v>3919753.4141234686</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4715400.4003190016</v>
       </c>
@@ -705,7 +698,7 @@
         <v>3908042.5975510385</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4704345.7886826023</v>
       </c>
@@ -729,24 +722,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8904E550-B708-4875-8857-E4C9ED22BC64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A0D7BC-AE0F-433E-8827-843F9FA2FD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,8 +440,9 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -467,19 +468,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.6551106500420899</v>
+        <v>6244.7026980078726</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0469131896978033E-2</v>
+        <v>4988.3171084829519</v>
       </c>
       <c r="D2" s="2">
-        <v>3.9874527662115314E-2</v>
+        <v>5730.9918507723096</v>
       </c>
       <c r="E2" s="2">
-        <v>1.1510000614327606E-2</v>
+        <v>4171.792512230486</v>
       </c>
       <c r="F2" s="2">
-        <v>3.9874527662115314E-2</v>
+        <v>5730.9918507723096</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -487,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>6.635731354983232</v>
+        <v>13037.033627779487</v>
       </c>
       <c r="C3" s="2">
-        <v>0.56498109709097288</v>
+        <v>11785.280487462438</v>
       </c>
       <c r="D3" s="2">
-        <v>1.1797419714033865</v>
+        <v>13092.227600317374</v>
       </c>
       <c r="E3" s="2">
-        <v>6.9615907654107398E-2</v>
+        <v>12627.698434656548</v>
       </c>
       <c r="F3" s="2">
-        <v>1.1797419714033865</v>
+        <v>13092.227600317374</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -507,19 +508,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>221.28748060603434</v>
+        <v>16972.059021772235</v>
       </c>
       <c r="C4" s="2">
-        <v>43.884363598813252</v>
+        <v>16267.669275665352</v>
       </c>
       <c r="D4" s="2">
-        <v>52.236117414878123</v>
+        <v>17160.5477410684</v>
       </c>
       <c r="E4" s="2">
-        <v>94.628148803711099</v>
+        <v>16796.146677427882</v>
       </c>
       <c r="F4" s="2">
-        <v>52.236117414878123</v>
+        <v>17160.5477410684</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -527,19 +528,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>1196.2285258344523</v>
+        <v>20810.654248320247</v>
       </c>
       <c r="C5" s="2">
-        <v>372.24923031870281</v>
+        <v>19702.023980177964</v>
       </c>
       <c r="D5" s="2">
-        <v>567.59710290525766</v>
+        <v>20820.199401339414</v>
       </c>
       <c r="E5" s="2">
-        <v>277.83186743869419</v>
+        <v>20038.548922042999</v>
       </c>
       <c r="F5" s="2">
-        <v>567.59710290525766</v>
+        <v>20820.199401339414</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -547,87 +548,87 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>7887.2765905941324</v>
+        <v>24111.691287086906</v>
       </c>
       <c r="C6" s="2">
-        <v>9068.4869198932302</v>
+        <v>22844.954937159415</v>
       </c>
       <c r="D6" s="2">
-        <v>3120.6957669757417</v>
+        <v>24123.291500445794</v>
       </c>
       <c r="E6" s="2">
-        <v>3832.9392735661877</v>
+        <v>22646.989565584441</v>
       </c>
       <c r="F6" s="2">
-        <v>3120.6957669757417</v>
+        <v>24123.291500445794</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>19705.696699455566</v>
+        <v>27419.938893613296</v>
       </c>
       <c r="C7">
-        <v>27346.035628580434</v>
+        <v>25880.9238978006</v>
       </c>
       <c r="D7">
-        <v>23114.478291355099</v>
+        <v>27368.981570029726</v>
       </c>
       <c r="E7">
-        <v>22491.463821829162</v>
+        <v>24513.247915139658</v>
       </c>
       <c r="F7">
-        <v>23114.478291355099</v>
+        <v>27368.981570029726</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>136758.85353512323</v>
+        <v>30759.970599155247</v>
       </c>
       <c r="C8">
-        <v>45946.724021206355</v>
+        <v>28756.360499726488</v>
       </c>
       <c r="D8">
-        <v>79573.437662370285</v>
+        <v>30572.443758233909</v>
       </c>
       <c r="E8">
-        <v>56124.862996012635</v>
+        <v>25007.901408930447</v>
       </c>
       <c r="F8">
-        <v>79573.437662370285</v>
+        <v>30572.443758233909</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9">
-        <v>320942.43393121561</v>
+        <v>34025.600006092631</v>
       </c>
       <c r="C9">
-        <v>451330.51273229864</v>
+        <v>31479.973732647191</v>
       </c>
       <c r="D9">
-        <v>254059.54342111835</v>
+        <v>34062.304959028421</v>
       </c>
       <c r="E9">
-        <v>226747.42047321409</v>
+        <v>23636.141324027187</v>
       </c>
       <c r="F9">
-        <v>254059.54342111835</v>
+        <v>34062.304959028421</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>2916699.5150474426</v>
+        <v>43198.875230379686</v>
       </c>
       <c r="C10">
-        <v>1031166.6665713912</v>
+        <v>33393.844402592746</v>
       </c>
       <c r="D10">
-        <v>1776449.355858786</v>
+        <v>37170.954986561374</v>
       </c>
       <c r="E10">
-        <v>1538987.3628932899</v>
+        <v>20521.650538606085</v>
       </c>
       <c r="F10">
-        <v>1776449.355858786</v>
+        <v>37170.954986561374</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A0D7BC-AE0F-433E-8827-843F9FA2FD2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5825C9-1635-4D26-8064-89C9B79CAF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Level 1</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Var5</t>
+  </si>
+  <si>
+    <t>Var6</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -440,12 +443,10 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -462,8 +463,11 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,16 +478,19 @@
         <v>4988.3171084829519</v>
       </c>
       <c r="D2" s="2">
+        <v>4748.2559480792643</v>
+      </c>
+      <c r="E2" s="2">
         <v>5730.9918507723096</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>4171.792512230486</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2">
         <v>5730.9918507723096</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,16 +501,19 @@
         <v>11785.280487462438</v>
       </c>
       <c r="D3" s="2">
+        <v>12164.561476723076</v>
+      </c>
+      <c r="E3" s="2">
         <v>13092.227600317374</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>12627.698434656548</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3">
         <v>13092.227600317374</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,16 +524,19 @@
         <v>16267.669275665352</v>
       </c>
       <c r="D4" s="2">
+        <v>16281.089433889119</v>
+      </c>
+      <c r="E4" s="2">
         <v>17160.5477410684</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>16796.146677427882</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4">
         <v>17160.5477410684</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -534,16 +547,19 @@
         <v>19702.023980177964</v>
       </c>
       <c r="D5" s="2">
+        <v>19868.197498453264</v>
+      </c>
+      <c r="E5" s="2">
         <v>20820.199401339414</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>20038.548922042999</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5">
         <v>20820.199401339414</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -554,16 +570,19 @@
         <v>22844.954937159415</v>
       </c>
       <c r="D6" s="2">
+        <v>22977.617081835102</v>
+      </c>
+      <c r="E6" s="2">
         <v>24123.291500445794</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>22646.989565584441</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6">
         <v>24123.291500445794</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>27419.938893613296</v>
       </c>
@@ -571,67 +590,79 @@
         <v>25880.9238978006</v>
       </c>
       <c r="D7">
+        <v>25958.444903991953</v>
+      </c>
+      <c r="E7">
         <v>27368.981570029726</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>24513.247915139658</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>27368.981570029726</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>30759.970599155247</v>
       </c>
       <c r="C8">
+        <v>28858.95010849855</v>
+      </c>
+      <c r="D8">
         <v>28756.360499726488</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>30572.443758233909</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>25007.901408930447</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>30572.443758233909</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>34025.600006092631</v>
       </c>
       <c r="C9">
+        <v>32118.981903573429</v>
+      </c>
+      <c r="D9">
         <v>31479.973732647191</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>34062.304959028421</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>23636.141324027187</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>34062.304959028421</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>43198.875230379686</v>
       </c>
       <c r="C10">
+        <v>34815.374223696876</v>
+      </c>
+      <c r="D10">
         <v>33393.844402592746</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>37170.954986561374</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>20521.650538606085</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>37170.954986561374</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>3841364.5332258306</v>
       </c>
@@ -648,7 +679,7 @@
         <v>2604947.4713609926</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>4650914.040362522</v>
       </c>
@@ -665,7 +696,7 @@
         <v>3357583.8196733333</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>4720871.6968995957</v>
       </c>
@@ -682,7 +713,7 @@
         <v>3919753.4141234686</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4715400.4003190016</v>
       </c>
@@ -699,7 +730,7 @@
         <v>3908042.5975510385</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>4704345.7886826023</v>
       </c>

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo Jacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E5825C9-1635-4D26-8064-89C9B79CAF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -433,20 +432,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -467,142 +468,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>6244.7026980078726</v>
+        <v>4459.6544546975701</v>
       </c>
       <c r="C2" s="2">
-        <v>4988.3171084829519</v>
+        <v>3561.8857368086992</v>
       </c>
       <c r="D2" s="2">
-        <v>4748.2559480792643</v>
+        <v>3389.8102099394414</v>
       </c>
       <c r="E2" s="2">
-        <v>5730.9918507723096</v>
+        <v>4091.9526016932518</v>
       </c>
       <c r="F2" s="2">
-        <v>4171.792512230486</v>
+        <v>2973.3081570257386</v>
       </c>
       <c r="G2">
-        <v>5730.9918507723096</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4091.9526016932518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>13037.033627779487</v>
+        <v>7241.7747480581147</v>
       </c>
       <c r="C3" s="2">
-        <v>11785.280487462438</v>
+        <v>6544.7350920368535</v>
       </c>
       <c r="D3" s="2">
-        <v>12164.561476723076</v>
+        <v>6753.6185365615902</v>
       </c>
       <c r="E3" s="2">
-        <v>13092.227600317374</v>
+        <v>7271.7024534714219</v>
       </c>
       <c r="F3" s="2">
-        <v>12627.698434656548</v>
+        <v>6979.0742073264801</v>
       </c>
       <c r="G3">
-        <v>13092.227600317374</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7271.7024534714219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>16972.059021772235</v>
+        <v>7707.6339748948221</v>
       </c>
       <c r="C4" s="2">
-        <v>16267.669275665352</v>
+        <v>7385.0332992716931</v>
       </c>
       <c r="D4" s="2">
-        <v>16281.089433889119</v>
+        <v>7386.2675384997874</v>
       </c>
       <c r="E4" s="2">
-        <v>17160.5477410684</v>
+        <v>7792.2045662920009</v>
       </c>
       <c r="F4" s="2">
-        <v>16796.146677427882</v>
+        <v>7540.6640102470255</v>
       </c>
       <c r="G4">
-        <v>17160.5477410684</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7792.2045662920009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>20810.654248320247</v>
+        <v>7991.0044969639212</v>
       </c>
       <c r="C5" s="2">
-        <v>19702.023980177964</v>
+        <v>7559.2456629523103</v>
       </c>
       <c r="D5" s="2">
-        <v>19868.197498453264</v>
+        <v>7611.4979359339304</v>
       </c>
       <c r="E5" s="2">
-        <v>20820.199401339414</v>
+        <v>7992.5790891327551</v>
       </c>
       <c r="F5" s="2">
-        <v>20038.548922042999</v>
+        <v>7508.2481279777812</v>
       </c>
       <c r="G5">
-        <v>20820.199401339414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7992.5790891327551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>24111.691287086906</v>
+        <v>8016.7938698414109</v>
       </c>
       <c r="C6" s="2">
-        <v>22844.954937159415</v>
+        <v>7583.8007621710021</v>
       </c>
       <c r="D6" s="2">
-        <v>22977.617081835102</v>
+        <v>7604.6675076362635</v>
       </c>
       <c r="E6" s="2">
-        <v>24123.291500445794</v>
+        <v>8016.6649080617017</v>
       </c>
       <c r="F6" s="2">
-        <v>22646.989565584441</v>
+        <v>7163.0604577579288</v>
       </c>
       <c r="G6">
-        <v>24123.291500445794</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8016.6649080617017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>27419.938893613296</v>
+        <v>8040.1404390414491</v>
       </c>
       <c r="C7">
-        <v>25880.9238978006</v>
+        <v>7557.1286125361403</v>
       </c>
       <c r="D7">
-        <v>25958.444903991953</v>
+        <v>7533.9892217891284</v>
       </c>
       <c r="E7">
-        <v>27368.981570029726</v>
+        <v>8008.6427364469009</v>
       </c>
       <c r="F7">
-        <v>24513.247915139658</v>
+        <v>6507.5792642633423</v>
       </c>
       <c r="G7">
-        <v>27368.981570029726</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8008.6427364469009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>30759.970599155247</v>
       </c>
@@ -622,7 +623,7 @@
         <v>30572.443758233909</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>34025.600006092631</v>
       </c>
@@ -642,7 +643,7 @@
         <v>34062.304959028421</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>43198.875230379686</v>
       </c>
@@ -662,7 +663,7 @@
         <v>37170.954986561374</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3841364.5332258306</v>
       </c>
@@ -679,7 +680,7 @@
         <v>2604947.4713609926</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>4650914.040362522</v>
       </c>
@@ -696,7 +697,7 @@
         <v>3357583.8196733333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>4720871.6968995957</v>
       </c>
@@ -713,7 +714,7 @@
         <v>3919753.4141234686</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4715400.4003190016</v>
       </c>
@@ -730,7 +731,7 @@
         <v>3908042.5975510385</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4704345.7886826023</v>
       </c>
@@ -754,24 +755,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/waveletEnergy/DecompLevelEnergy.xlsx
+++ b/files/waveletEnergy/DecompLevelEnergy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjacome\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\CurriculumVitae\files\waveletEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2947147A-825E-47FF-8B59-FE5B13825400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="4545" windowWidth="12810" windowHeight="9750"/>
+    <workbookView xWindow="172" yWindow="135" windowWidth="12608" windowHeight="12787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -432,22 +433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -468,7 +467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,85 +481,85 @@
         <v>3389.8102099394414</v>
       </c>
       <c r="E2" s="2">
-        <v>4091.9526016932518</v>
+        <v>4091.9526016932464</v>
       </c>
       <c r="F2" s="2">
-        <v>2973.3081570257386</v>
+        <v>2973.3081570257377</v>
       </c>
       <c r="G2">
-        <v>4091.9526016932518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4091.9526016932464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>7241.7747480581147</v>
+        <v>7241.7747480581129</v>
       </c>
       <c r="C3" s="2">
-        <v>6544.7350920368535</v>
+        <v>6544.7350920368617</v>
       </c>
       <c r="D3" s="2">
-        <v>6753.6185365615902</v>
+        <v>6753.6185365615866</v>
       </c>
       <c r="E3" s="2">
-        <v>7271.7024534714219</v>
+        <v>7271.7024534714183</v>
       </c>
       <c r="F3" s="2">
-        <v>6979.0742073264801</v>
+        <v>6979.0742073264864</v>
       </c>
       <c r="G3">
-        <v>7271.7024534714219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7271.7024534714183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>7707.6339748948221</v>
+        <v>7707.6339748948212</v>
       </c>
       <c r="C4" s="2">
-        <v>7385.0332992716931</v>
+        <v>7385.0332992717022</v>
       </c>
       <c r="D4" s="2">
-        <v>7386.2675384997874</v>
+        <v>7386.2675384997838</v>
       </c>
       <c r="E4" s="2">
-        <v>7792.2045662920009</v>
+        <v>7792.2045662919945</v>
       </c>
       <c r="F4" s="2">
-        <v>7540.6640102470255</v>
+        <v>7540.6640102470337</v>
       </c>
       <c r="G4">
-        <v>7792.2045662920009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7792.2045662919945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>7991.0044969639212</v>
+        <v>7991.0044969639202</v>
       </c>
       <c r="C5" s="2">
-        <v>7559.2456629523103</v>
+        <v>7559.2456629523176</v>
       </c>
       <c r="D5" s="2">
-        <v>7611.4979359339304</v>
+        <v>7611.4979359339286</v>
       </c>
       <c r="E5" s="2">
-        <v>7992.5790891327551</v>
+        <v>7992.5790891327451</v>
       </c>
       <c r="F5" s="2">
-        <v>7508.2481279777812</v>
+        <v>7508.2481279777821</v>
       </c>
       <c r="G5">
-        <v>7992.5790891327551</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7992.5790891327451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,42 +567,42 @@
         <v>8016.7938698414109</v>
       </c>
       <c r="C6" s="2">
-        <v>7583.8007621710021</v>
+        <v>7583.8007621710121</v>
       </c>
       <c r="D6" s="2">
-        <v>7604.6675076362635</v>
+        <v>7604.6675076362608</v>
       </c>
       <c r="E6" s="2">
-        <v>8016.6649080617017</v>
+        <v>8016.6649080616935</v>
       </c>
       <c r="F6" s="2">
-        <v>7163.0604577579288</v>
+        <v>7163.0604577579315</v>
       </c>
       <c r="G6">
-        <v>8016.6649080617017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8016.6649080616935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
-        <v>8040.1404390414491</v>
+        <v>8040.1404390414473</v>
       </c>
       <c r="C7">
-        <v>7557.1286125361403</v>
+        <v>7557.1286125361521</v>
       </c>
       <c r="D7">
-        <v>7533.9892217891284</v>
+        <v>7533.9892217891211</v>
       </c>
       <c r="E7">
-        <v>8008.6427364469009</v>
+        <v>8008.6427364468982</v>
       </c>
       <c r="F7">
-        <v>6507.5792642633423</v>
+        <v>6507.5792642633442</v>
       </c>
       <c r="G7">
-        <v>8008.6427364469009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8008.6427364468982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>30759.970599155247</v>
       </c>
@@ -623,7 +622,7 @@
         <v>30572.443758233909</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>34025.600006092631</v>
       </c>
@@ -643,7 +642,7 @@
         <v>34062.304959028421</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>43198.875230379686</v>
       </c>
@@ -663,7 +662,7 @@
         <v>37170.954986561374</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>3841364.5332258306</v>
       </c>
@@ -680,7 +679,7 @@
         <v>2604947.4713609926</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>4650914.040362522</v>
       </c>
@@ -697,7 +696,7 @@
         <v>3357583.8196733333</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4720871.6968995957</v>
       </c>
@@ -714,7 +713,7 @@
         <v>3919753.4141234686</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>4715400.4003190016</v>
       </c>
@@ -731,7 +730,7 @@
         <v>3908042.5975510385</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>4704345.7886826023</v>
       </c>
@@ -755,24 +754,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
